--- a/_INTERPOLATION/area1_Tr.xlsx
+++ b/_INTERPOLATION/area1_Tr.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5716,7 +5716,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6012,7 +6012,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -6620,7 +6620,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7020,7 +7020,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7120,7 +7120,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -7728,7 +7728,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -7832,7 +7832,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -7928,7 +7928,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8028,7 +8028,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -8128,7 +8128,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -8328,7 +8328,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -8832,7 +8832,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -8932,7 +8932,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -9032,7 +9032,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -9232,7 +9232,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -9332,7 +9332,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -9432,7 +9432,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -9740,7 +9740,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -10048,7 +10048,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -10148,7 +10148,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -10248,7 +10248,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -10352,7 +10352,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -10560,7 +10560,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -10664,7 +10664,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -10764,7 +10764,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -10864,7 +10864,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -10968,7 +10968,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -11072,7 +11072,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -11372,7 +11372,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -11476,7 +11476,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -11580,7 +11580,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -11680,7 +11680,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -11780,7 +11780,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -11880,7 +11880,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -11984,7 +11984,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -12084,7 +12084,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -12288,7 +12288,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -12392,7 +12392,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -12496,7 +12496,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -12600,7 +12600,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -12700,7 +12700,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -12800,7 +12800,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -13004,7 +13004,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -13104,7 +13104,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -13204,7 +13204,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -13304,7 +13304,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -13504,7 +13504,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -13604,7 +13604,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -13704,7 +13704,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -13804,7 +13804,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -13904,7 +13904,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -14004,7 +14004,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -14204,7 +14204,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -14300,7 +14300,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -14404,7 +14404,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -14504,7 +14504,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -14604,7 +14604,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -14708,7 +14708,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -14808,7 +14808,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -14908,7 +14908,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -15008,7 +15008,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -15212,7 +15212,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -15312,7 +15312,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -15416,7 +15416,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -15516,7 +15516,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -15616,7 +15616,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -15816,7 +15816,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -16128,7 +16128,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -16232,7 +16232,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -16332,7 +16332,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -16432,7 +16432,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -16632,7 +16632,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -16828,7 +16828,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -17136,7 +17136,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -17232,7 +17232,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -17336,7 +17336,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -17432,7 +17432,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -17532,7 +17532,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -17636,7 +17636,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -17736,7 +17736,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -17836,7 +17836,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -17936,7 +17936,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -18036,7 +18036,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -18236,7 +18236,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -18336,7 +18336,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -18440,7 +18440,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -18548,7 +18548,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -18644,7 +18644,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -18744,7 +18744,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -18840,7 +18840,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -19040,7 +19040,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -19140,7 +19140,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -19340,7 +19340,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -19444,7 +19444,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -19548,7 +19548,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -19648,7 +19648,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -19748,7 +19748,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -19848,7 +19848,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -19952,7 +19952,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -20052,7 +20052,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -20148,7 +20148,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -20348,7 +20348,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -20448,7 +20448,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -20644,7 +20644,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -20740,7 +20740,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -20840,7 +20840,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -20940,7 +20940,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -21040,7 +21040,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -21140,7 +21140,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -21240,7 +21240,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -21336,7 +21336,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -21436,7 +21436,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -21540,7 +21540,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -21740,7 +21740,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -21840,7 +21840,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -21940,7 +21940,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -22140,7 +22140,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -22240,7 +22240,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -22340,7 +22340,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -22440,7 +22440,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -22644,7 +22644,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -22844,7 +22844,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -22944,7 +22944,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -23044,7 +23044,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -23148,7 +23148,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -23248,7 +23248,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -23348,7 +23348,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -23448,7 +23448,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -23548,7 +23548,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -23648,7 +23648,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -23748,7 +23748,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -23848,7 +23848,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -23948,7 +23948,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -24044,7 +24044,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -24144,7 +24144,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -24244,7 +24244,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -24348,7 +24348,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -24448,7 +24448,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -24548,7 +24548,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -24644,7 +24644,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -24744,7 +24744,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -24848,7 +24848,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -24952,7 +24952,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -25052,7 +25052,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -25156,7 +25156,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -25256,7 +25256,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -25356,7 +25356,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -25456,7 +25456,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -25556,7 +25556,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -25656,7 +25656,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -25756,7 +25756,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -25856,7 +25856,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -25956,7 +25956,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -26056,7 +26056,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -26156,7 +26156,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -26260,7 +26260,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -26360,7 +26360,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -26464,7 +26464,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -26564,7 +26564,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -26664,7 +26664,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -26764,7 +26764,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -26864,7 +26864,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -26964,7 +26964,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -27068,7 +27068,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -27172,7 +27172,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -27272,7 +27272,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -27376,7 +27376,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -27476,7 +27476,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -27580,7 +27580,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -27684,7 +27684,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -27788,7 +27788,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -27884,7 +27884,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -27984,7 +27984,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -28080,7 +28080,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -28180,7 +28180,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -28280,7 +28280,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -28376,7 +28376,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -28480,7 +28480,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -28576,7 +28576,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -28680,7 +28680,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -28776,7 +28776,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -28880,7 +28880,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -28980,7 +28980,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -29084,7 +29084,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -29184,7 +29184,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -29288,7 +29288,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -29384,7 +29384,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -29484,7 +29484,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -29588,7 +29588,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -29692,7 +29692,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -29788,7 +29788,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -29892,7 +29892,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -29992,7 +29992,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -30088,7 +30088,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -30188,7 +30188,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -30288,7 +30288,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -30392,7 +30392,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -30496,7 +30496,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -30596,7 +30596,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -30696,7 +30696,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -30796,7 +30796,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -30896,7 +30896,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -30996,7 +30996,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -31096,7 +31096,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -31196,7 +31196,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -31292,7 +31292,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -31388,7 +31388,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -31488,7 +31488,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -31588,7 +31588,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -31692,7 +31692,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -31792,7 +31792,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -31892,7 +31892,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -31992,7 +31992,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -32092,7 +32092,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -32192,7 +32192,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -32292,7 +32292,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -32396,7 +32396,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -32492,7 +32492,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -32592,7 +32592,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -32692,7 +32692,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -32792,7 +32792,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -32896,7 +32896,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -32996,7 +32996,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -33096,7 +33096,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -33196,7 +33196,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -33296,7 +33296,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -33400,7 +33400,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -33504,7 +33504,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -33604,7 +33604,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -33704,7 +33704,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -33808,7 +33808,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -33912,7 +33912,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -34012,7 +34012,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -34112,7 +34112,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -34212,7 +34212,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -34312,7 +34312,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -34416,7 +34416,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -34520,7 +34520,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -34616,7 +34616,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -34716,7 +34716,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -34816,7 +34816,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -34916,7 +34916,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -35016,7 +35016,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -35116,7 +35116,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -35216,7 +35216,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -35316,7 +35316,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -35416,7 +35416,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -35520,7 +35520,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -35620,7 +35620,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -35720,7 +35720,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -35820,7 +35820,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -35924,7 +35924,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -36028,7 +36028,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -36132,7 +36132,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -36236,7 +36236,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -36336,7 +36336,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -36440,7 +36440,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -36540,7 +36540,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -36640,7 +36640,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -36740,7 +36740,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -36840,7 +36840,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -36940,7 +36940,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -37044,7 +37044,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -37144,7 +37144,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -37240,7 +37240,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -37340,7 +37340,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -37440,7 +37440,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -37540,7 +37540,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -37640,7 +37640,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -37740,7 +37740,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -37840,7 +37840,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -37944,7 +37944,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -38048,7 +38048,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -38152,7 +38152,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -38252,7 +38252,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -38352,7 +38352,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -38456,7 +38456,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -38556,7 +38556,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -38656,7 +38656,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -38760,7 +38760,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -38860,7 +38860,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -38960,7 +38960,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -39060,7 +39060,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -39160,7 +39160,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -39256,7 +39256,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -39356,7 +39356,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -39460,7 +39460,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -39560,7 +39560,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -39660,7 +39660,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
@@ -39760,7 +39760,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -39864,7 +39864,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -39968,7 +39968,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -40068,7 +40068,7 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
@@ -40168,7 +40168,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -40268,7 +40268,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -40372,7 +40372,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -40472,7 +40472,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
@@ -40572,7 +40572,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -40672,7 +40672,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -40772,7 +40772,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -40872,7 +40872,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -40976,7 +40976,7 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -41076,7 +41076,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -41176,7 +41176,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -41276,7 +41276,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -41376,7 +41376,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -41476,7 +41476,7 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
@@ -41576,7 +41576,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
@@ -41676,7 +41676,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -41776,7 +41776,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -41872,7 +41872,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -41968,7 +41968,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
@@ -42068,7 +42068,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
@@ -42168,7 +42168,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -42268,7 +42268,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -42368,7 +42368,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -42464,7 +42464,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -42564,7 +42564,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -42660,7 +42660,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -42764,7 +42764,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
@@ -42864,7 +42864,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
@@ -42960,7 +42960,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
@@ -43064,7 +43064,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -43160,7 +43160,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -43260,7 +43260,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
@@ -43360,7 +43360,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -43464,7 +43464,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -43564,7 +43564,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -43660,7 +43660,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -43760,7 +43760,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
@@ -43864,7 +43864,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -43968,7 +43968,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
@@ -44072,7 +44072,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
@@ -44172,7 +44172,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
@@ -44272,7 +44272,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
@@ -44376,7 +44376,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -44480,7 +44480,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
@@ -44580,7 +44580,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -44680,7 +44680,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -44780,7 +44780,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -44880,7 +44880,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
@@ -44980,7 +44980,7 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
@@ -45076,7 +45076,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
@@ -45180,7 +45180,7 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -45284,7 +45284,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -45384,7 +45384,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
@@ -45480,7 +45480,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
@@ -45580,7 +45580,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
@@ -45684,7 +45684,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
@@ -45784,7 +45784,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
@@ -45888,7 +45888,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
@@ -45992,7 +45992,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -46088,7 +46088,7 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -46188,7 +46188,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -46288,7 +46288,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -46388,7 +46388,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -46488,7 +46488,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -46588,7 +46588,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -46684,7 +46684,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -46788,7 +46788,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
@@ -46888,7 +46888,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -46984,7 +46984,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -47080,7 +47080,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
@@ -47180,7 +47180,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
@@ -47280,7 +47280,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
@@ -47380,7 +47380,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -47476,7 +47476,7 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -47576,7 +47576,7 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
